--- a/medicine/Psychotrope/Synchronic/Synchronic.xlsx
+++ b/medicine/Psychotrope/Synchronic/Synchronic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Synchronic est un film de science-fiction américain réalisé par Justin Benson et Aaron Moorhead et sorti en 2019.
 Il est présenté au festival international du film de Toronto 2019 et sort en salles l'année suivante.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors qu'ils travaillent comme secouristes de nuit à La Nouvelle-Orléans, Steve et Dennis, deux amis proches aux vies bien différentes, se retrouvent confrontés à une nouvelle drogue de synthèse. En effet, les victimes des dernières scènes sur lesquelles ils ont été appelés ont vraisemblablement consommé du Synchronic. Or, toutes sont décédées ou ont été blessées dans d'étranges circonstances. Steve décide de se procurer les dernières pilules de Synchronic afin d'éviter d'autres drames. Il vient alors d'apprendre qu'il est atteint d'une tumeur cérébrale touchant précisément sa glande pinéale.
 Lorsque Brianna — la fille ainée de Dennis — est portée disparue, Steve expérimente lui-même la drogue, dont les propriétés permettent de voyager dans le temps pendant quelques minutes. Il espère ainsi ramener Brianna auprès des siens. Il va alors tenter de comprendre comment cela fonctionne pour retrouver l'époque où est la jeune fille.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Synchronic
@@ -565,7 +581,7 @@
 Canada : 7 septembre 2019 (festival de Toronto)
 États-Unis : 23 octobre 2020
 France : 3 mars 2021 (DVD)
-Classification[1] :
+Classification :
 États-Unis : R
 France : interdit aux moins de 10 ans</t>
         </is>
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jamie Dornan (VF : Valentin Merlet) : Dennis Dannelly
 Anthony Mackie (VF : Jean-Baptiste Anoumon) : Steve Denube
@@ -608,7 +626,7 @@
 Devyn A. Tyler : Danika
 Betsy Holt : Leah
 Shane Brady : Travis
- Source et légende : version française (VF) sur RS Doublage[2]</t>
+ Source et légende : version française (VF) sur RS Doublage</t>
         </is>
       </c>
     </row>
@@ -636,9 +654,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu à La Nouvelle-Orléans, notamment dans le quartier d'Algiers Point et dans les Deep South Studios[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu à La Nouvelle-Orléans, notamment dans le quartier d'Algiers Point et dans les Deep South Studios.
 </t>
         </is>
       </c>
@@ -668,6 +688,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -693,9 +715,11 @@
           <t>Clin d’œil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film possède un lien avec les précédents films du duo de réalisateurs : Resolution et The Endless. Il est ici question d'une drogue créée à partir d'une fleur spécifique poussant dans le désert de Californie évoquée dans The Endless[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film possède un lien avec les précédents films du duo de réalisateurs : Resolution et The Endless. Il est ici question d'une drogue créée à partir d'une fleur spécifique poussant dans le désert de Californie évoquée dans The Endless.
 </t>
         </is>
       </c>
